--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-16-filter-with-logic-minus.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-16-filter-with-logic-minus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B574A401-9821-4C21-A3C7-15C38CABD294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBCE2E1E-619A-45EC-981D-17C225747C0E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBFDFD-1D26-4BAA-893F-0A9A9548946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="FILTER" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Venues</t>
   </si>
@@ -93,17 +115,64 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">List of venues that have &gt;=400 capacity and a DJ or &lt;400 and no DJ. </t>
-  </si>
-  <si>
     <t>The Magic Rooom</t>
+  </si>
+  <si>
+    <r>
+      <t>List of venues that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> have &gt;=400 capacity and a DJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;400 and no DJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>dj</t>
+  </si>
+  <si>
+    <t>"-" = (One or The Other) is true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +190,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -151,10 +239,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,35 +547,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="13.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +594,14 @@
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -516,8 +611,24 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:G12">_xlfn._xlws.FILTER(Venues[],(Venues[Capacity]&gt;=I4)-(Venues[DJ]=J4),"No Records")</f>
+        <v>Club Hyatt</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4" t="str">
+        <v>No</v>
+      </c>
+      <c r="I4">
+        <v>600</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -527,8 +638,17 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <v>Beaches</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -538,8 +658,17 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <v>Britannia Rooms</v>
+      </c>
+      <c r="F6">
+        <v>450</v>
+      </c>
+      <c r="G6" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -549,8 +678,17 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <v>Shakespears Globe</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -560,8 +698,17 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <v>Ainsley Manor</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -571,8 +718,17 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <v>Finsbury Castle</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -582,8 +738,17 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <v>The Old Bell</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -593,8 +758,17 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <v>King George V</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -604,8 +778,17 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <v>The Shard</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+      <c r="G12" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -616,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -627,7 +810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -638,7 +821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -649,7 +832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -660,15 +843,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>500</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.6">
+      <c r="D21" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
